--- a/biology/Zoologie/Dolophones_notacantha/Dolophones_notacantha.xlsx
+++ b/biology/Zoologie/Dolophones_notacantha/Dolophones_notacantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolophones notacantha est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolophones notacantha est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quoy &amp; Gaimard, 1824 : Zoologie Voyage Autour du Monde, Entrepris par le ministère et conformément aux instructions de s. exc. M. le Vicomte du Bouchage, Secrétaire d’État au Department de la Marine, Exécuté sur les corvettes de S.M. l’Uranie et la Physicienne, pendant les années 1817–1820. Zoologie. Paris, p. 1–712.</t>
         </is>
